--- a/API_v1.3.xlsx
+++ b/API_v1.3.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwonjun/Desktop/workspace/contest/2022 CJ/CJ-Delivery-Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E88D5-097E-5840-8AC1-D688D05586DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8967EF-A552-1347-9EDA-FB3904EF66CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="1" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="3" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="works" sheetId="2" r:id="rId2"/>
     <sheet name="map" sheetId="3" r:id="rId3"/>
     <sheet name="item" sheetId="4" r:id="rId4"/>
+    <sheet name="user" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="238">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -690,6 +691,277 @@
   </si>
   <si>
     <t>배송완료 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/works/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달 요약 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 요약 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴdeliveryManID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴitemNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송물품 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴcompleteNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료 물품 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴincome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴstartTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달 시작 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.07.30. 03:21:52 AM</t>
+  </si>
+  <si>
+    <t>ㄴendTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.07.30. 04:03:05 AM</t>
+  </si>
+  <si>
+    <t>배달 완료 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴcomplete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/item/scan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품스캔 완료 후 미스캔 물품 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>성공여부</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>success가 false일때만 날아옴</t>
+  </si>
+  <si>
+    <t>/user/idcheck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디중복검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd147asd147</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디중복검사 할 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>existence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false: 없음, true: 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/register</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0b0c0d0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20자리 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 비밀번호 확인 만드세여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIdentityNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000124-1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식맞추세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPhone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2287-9610</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXX-XX-XXXXXX</t>
+  </si>
+  <si>
+    <t>이건 형식 없습니다 알아서 넘겨주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔 안된 물품 번호만 보낼 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 성공여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴuserID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴuserPassword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴuserIdentityNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴuserPhone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴuserAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFGIKNOSUTPRZIKN</t>
+  </si>
+  <si>
+    <t>ㄴregisterDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.07.30. 05:25:30 AM</t>
+  </si>
+  <si>
+    <t>가입날짜 및 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"존재하지 않는 아이디 입니다."</t>
+  </si>
+  <si>
+    <t>"비밀번호가 일치하지 않습니다."</t>
+  </si>
+  <si>
+    <t>존재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"로그인에 성공하였습니다."</t>
+  </si>
+  <si>
+    <t>로그인 실패 및 성공 여부 메시지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +969,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -742,6 +1014,19 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202124"/>
+      <name val="Apple SD Gothic Neo"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -771,7 +1056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +1079,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821A2DCA-C0C7-554B-B933-26160A638F9D}">
-  <dimension ref="D9:G20"/>
+  <dimension ref="D9:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1235,17 +1532,17 @@
       </c>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17">
+      <c r="D17" s="5">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
+      <c r="F17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="4:7">
@@ -1256,10 +1553,10 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="4:7">
@@ -1267,18 +1564,69 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="4:7">
       <c r="D20">
         <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="5">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1289,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD53461-2E64-A94A-A7F3-2763593D7F81}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1947,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -2080,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -2204,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="G79" s="6"/>
     </row>
@@ -2259,6 +2607,374 @@
         <v>160</v>
       </c>
       <c r="G83" s="6"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="C92" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93">
+        <v>20220515</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7">
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="C98" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="8">
+        <v>2</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="C101" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7">
+      <c r="C102" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102">
+        <v>9000</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7">
+      <c r="C103" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>181</v>
+      </c>
+      <c r="F103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7">
+      <c r="C104" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="C105" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7">
+      <c r="C108" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>75</v>
+      </c>
+      <c r="F109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7">
+      <c r="C110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" t="s">
+        <v>118</v>
+      </c>
+      <c r="E110" t="s">
+        <v>132</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="E111" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2271,7 +2987,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2394,16 +3110,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF627A-0305-2646-9B0C-D3CC9DB19EAA}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="5" max="5" width="80.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2999,6 +3715,677 @@
         <v>140</v>
       </c>
     </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="G56" s="3"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A91A3-BD00-C145-9327-5DFA20C11CF3}">
+  <dimension ref="A1:I1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19">
+      <c r="C15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="C18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="C31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19">
+      <c r="C32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1048576" spans="7:7">
+      <c r="G1048576" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
